--- a/CollectionSoftware2/Backup/ARUL STORE (CHOO).xlsx
+++ b/CollectionSoftware2/Backup/ARUL STORE (CHOO).xlsx
@@ -424,21 +424,21 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2023/07/13</t>
+          <t>2023-07-18</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>4960</v>
+        <v>7941</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023/07/14</t>
+          <t>2023-07-18</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6664</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="3">
